--- a/schedule_output.xlsx
+++ b/schedule_output.xlsx
@@ -2483,7 +2483,7 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>10:00 - 11:00am</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -2529,7 +2529,7 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>11:00 - 12:00pm</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -2575,7 +2575,7 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>12:00 - 1:00pm</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -2617,7 +2617,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>1:00 - 2:00pm</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -2659,7 +2659,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>2:00 - 3:00pm</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -2701,7 +2701,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>3:00 - 4:00pm</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -2751,7 +2751,7 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>4:00 - 5:00pm</t>
         </is>
       </c>
       <c r="C9" s="14" t="inlineStr">
@@ -2793,7 +2793,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>5:00 - 6:00pm</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
@@ -2831,7 +2831,7 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>6:00 - 7:00pm</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
@@ -2873,7 +2873,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>7:00 - 8:00pm</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -2907,7 +2907,7 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>8:00 - 9:00pm</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
@@ -2941,7 +2941,7 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>9:00 - 10:00pm</t>
         </is>
       </c>
       <c r="C14" s="14" t="inlineStr">
@@ -3097,7 +3097,7 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>10:00 - 11:00am</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
@@ -3132,7 +3132,7 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>11:00 - 12:00pm</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -3167,7 +3167,7 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>12:00 - 1:00pm</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
@@ -3202,7 +3202,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>1:00 - 2:00pm</t>
         </is>
       </c>
       <c r="C6" s="18" t="inlineStr">
@@ -3237,7 +3237,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>2:00 - 3:00pm</t>
         </is>
       </c>
       <c r="C7" s="17" t="inlineStr">
@@ -3272,7 +3272,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>3:00 - 4:00pm</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
@@ -3307,7 +3307,7 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>4:00 - 5:00pm</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
@@ -3500,7 +3500,7 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>12:00 - 1:00pm</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -3535,7 +3535,7 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>1:00 - 2:00pm</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -3570,7 +3570,7 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>2:00 - 3:00pm</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -3605,7 +3605,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>3:00 - 4:00pm</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -3640,7 +3640,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>4:00 - 5:00pm</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -3671,7 +3671,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>5:00 - 6:00pm</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -3875,7 +3875,7 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>12:00 - 1:00pm</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -3910,7 +3910,7 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>1:00 - 2:00pm</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -3945,7 +3945,7 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>2:00 - 3:00pm</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -3980,7 +3980,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>3:00 - 4:00pm</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -4015,7 +4015,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>4:00 - 5:00pm</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -4046,7 +4046,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>5:00 - 6:00pm</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">

--- a/schedule_output.xlsx
+++ b/schedule_output.xlsx
@@ -141,7 +141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCF002F"/>
+        <fgColor rgb="FFCF5029"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +774,7 @@
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>UOIT</t>
+          <t>OTECH</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -820,7 +820,7 @@
       <c r="D8" s="16" t="n"/>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>UOIT</t>
+          <t>OTECH</t>
         </is>
       </c>
       <c r="F8" s="9" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="F3" s="17" t="inlineStr">
         <is>
-          <t>UOIT</t>
+          <t>OTECH</t>
         </is>
       </c>
       <c r="G3" s="12" t="inlineStr">
@@ -1455,7 +1455,7 @@
       <c r="C8" s="16" t="n"/>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>UOIT</t>
+          <t>OTECH</t>
         </is>
       </c>
       <c r="E8" s="18" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E3" s="17" t="inlineStr">
         <is>
-          <t>UOIT</t>
+          <t>OTECH</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>UOIT</t>
+          <t>OTECH</t>
         </is>
       </c>
       <c r="H8" s="16" t="n"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D3" s="17" t="inlineStr">
         <is>
-          <t>UOIT</t>
+          <t>OTECH</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C7" s="17" t="inlineStr">
         <is>
-          <t>UOIT</t>
+          <t>OTECH</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">

--- a/schedule_output.xlsx
+++ b/schedule_output.xlsx
@@ -35,7 +35,7 @@
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="55"/>
+      <sz val="36"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,7 +54,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill/>
     </fill>
@@ -94,6 +94,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF79027"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7ECB4A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,6 +159,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA65FA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5C0E41"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -170,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -215,16 +227,22 @@
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,17 +621,17 @@
           <t>Brock</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I3" s="10" t="inlineStr">
+      <c r="I3" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J3" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -648,22 +666,22 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="H4" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
       </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="I4" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="J4" s="11" t="inlineStr">
+      <c r="J4" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -678,7 +696,7 @@
           <t>12:00 - 1:00pm</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>S. Portal (KH)</t>
         </is>
@@ -688,7 +706,7 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E5" s="15" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>Laurentian</t>
         </is>
@@ -698,14 +716,14 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="16" t="n"/>
-      <c r="J5" s="11" t="inlineStr">
+      <c r="H5" s="17" t="n"/>
+      <c r="I5" s="17" t="n"/>
+      <c r="J5" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -725,7 +743,7 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D6" s="15" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Laurentian</t>
         </is>
@@ -740,14 +758,14 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H6" s="16" t="n"/>
-      <c r="I6" s="16" t="n"/>
-      <c r="J6" s="11" t="inlineStr">
+      <c r="H6" s="17" t="n"/>
+      <c r="I6" s="17" t="n"/>
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -767,12 +785,12 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
       </c>
-      <c r="E7" s="17" t="inlineStr">
+      <c r="E7" s="18" t="inlineStr">
         <is>
           <t>OTECH</t>
         </is>
@@ -782,22 +800,22 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G7" s="12" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H7" s="9" t="inlineStr">
+      <c r="H7" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I7" s="10" t="inlineStr">
+      <c r="I7" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="J7" s="15" t="inlineStr">
+      <c r="J7" s="16" t="inlineStr">
         <is>
           <t>Laurentian</t>
         </is>
@@ -817,8 +835,8 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="18" t="inlineStr">
         <is>
           <t>OTECH</t>
         </is>
@@ -828,22 +846,22 @@
           <t>Brock</t>
         </is>
       </c>
-      <c r="G8" s="12" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H8" s="9" t="inlineStr">
+      <c r="H8" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I8" s="10" t="inlineStr">
+      <c r="I8" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="J8" s="15" t="inlineStr">
+      <c r="J8" s="16" t="inlineStr">
         <is>
           <t>Laurentian</t>
         </is>
@@ -873,23 +891,23 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="F9" s="18" t="inlineStr">
+      <c r="F9" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="G9" s="12" t="inlineStr">
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I9" s="16" t="n"/>
-      <c r="J9" s="11" t="inlineStr">
+      <c r="I9" s="17" t="n"/>
+      <c r="J9" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -914,24 +932,24 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G10" s="16" t="n"/>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G10" s="17" t="n"/>
+      <c r="H10" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I10" s="16" t="n"/>
-      <c r="J10" s="14" t="inlineStr">
+      <c r="I10" s="17" t="n"/>
+      <c r="J10" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -956,24 +974,24 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E11" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F11" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="H11" s="16" t="n"/>
-      <c r="I11" s="16" t="n"/>
-      <c r="J11" s="14" t="inlineStr">
+      <c r="G11" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="H11" s="17" t="n"/>
+      <c r="I11" s="17" t="n"/>
+      <c r="J11" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -998,20 +1016,20 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E12" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F12" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="G12" s="16" t="n"/>
-      <c r="H12" s="16" t="n"/>
-      <c r="I12" s="16" t="n"/>
-      <c r="J12" s="14" t="inlineStr">
+      <c r="G12" s="17" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="I12" s="17" t="n"/>
+      <c r="J12" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -1036,20 +1054,20 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E13" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F13" s="18" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F13" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="16" t="n"/>
-      <c r="I13" s="16" t="n"/>
-      <c r="J13" s="14" t="inlineStr">
+      <c r="G13" s="17" t="n"/>
+      <c r="H13" s="17" t="n"/>
+      <c r="I13" s="17" t="n"/>
+      <c r="J13" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -1074,16 +1092,16 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E14" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F14" s="16" t="n"/>
-      <c r="G14" s="16" t="n"/>
-      <c r="H14" s="16" t="n"/>
-      <c r="I14" s="16" t="n"/>
-      <c r="J14" s="14" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="n"/>
+      <c r="G14" s="17" t="n"/>
+      <c r="H14" s="17" t="n"/>
+      <c r="I14" s="17" t="n"/>
+      <c r="J14" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -1236,17 +1254,17 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F3" s="17" t="inlineStr">
+      <c r="F3" s="18" t="inlineStr">
         <is>
           <t>OTECH</t>
         </is>
       </c>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
@@ -1256,8 +1274,8 @@
           <t>Brock</t>
         </is>
       </c>
-      <c r="I3" s="16" t="n"/>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="I3" s="17" t="n"/>
+      <c r="J3" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1282,28 +1300,28 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F4" s="13" t="inlineStr">
+      <c r="F4" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="I4" s="16" t="n"/>
-      <c r="J4" s="11" t="inlineStr">
+      <c r="I4" s="17" t="n"/>
+      <c r="J4" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1328,24 +1346,24 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="E5" s="18" t="inlineStr">
+      <c r="E5" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F5" s="16" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="F5" s="17" t="n"/>
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I5" s="16" t="n"/>
-      <c r="J5" s="11" t="inlineStr">
+      <c r="I5" s="17" t="n"/>
+      <c r="J5" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1370,28 +1388,28 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="E6" s="18" t="inlineStr">
+      <c r="E6" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>S. Portal (GM)</t>
         </is>
       </c>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H6" s="9" t="inlineStr">
+      <c r="H6" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I6" s="16" t="n"/>
-      <c r="J6" s="11" t="inlineStr">
+      <c r="I6" s="17" t="n"/>
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1416,17 +1434,17 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="E7" s="18" t="inlineStr">
+      <c r="E7" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F7" s="10" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="G7" s="14" t="inlineStr">
+      <c r="G7" s="20" t="inlineStr">
         <is>
           <t>G-Humber</t>
         </is>
@@ -1436,8 +1454,8 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="I7" s="16" t="n"/>
-      <c r="J7" s="11" t="inlineStr">
+      <c r="I7" s="17" t="n"/>
+      <c r="J7" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1452,34 +1470,34 @@
           <t>3:00 - 4:00pm</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="17" t="inlineStr">
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="18" t="inlineStr">
         <is>
           <t>OTECH</t>
         </is>
       </c>
-      <c r="E8" s="18" t="inlineStr">
+      <c r="E8" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F8" s="13" t="inlineStr">
+      <c r="F8" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
       </c>
-      <c r="G8" s="12" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H8" s="10" t="inlineStr">
+      <c r="H8" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="I8" s="16" t="n"/>
-      <c r="J8" s="15" t="inlineStr">
+      <c r="I8" s="17" t="n"/>
+      <c r="J8" s="16" t="inlineStr">
         <is>
           <t>Laurentian</t>
         </is>
@@ -1494,7 +1512,7 @@
           <t>4:00 - 5:00pm</t>
         </is>
       </c>
-      <c r="C9" s="14" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -1504,24 +1522,24 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E9" s="18" t="inlineStr">
+      <c r="E9" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F9" s="16" t="n"/>
-      <c r="G9" s="12" t="inlineStr">
+      <c r="F9" s="17" t="n"/>
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I9" s="16" t="n"/>
-      <c r="J9" s="15" t="inlineStr">
+      <c r="I9" s="17" t="n"/>
+      <c r="J9" s="16" t="inlineStr">
         <is>
           <t>Laurentian</t>
         </is>
@@ -1536,30 +1554,30 @@
           <t>5:00 - 6:00pm</t>
         </is>
       </c>
-      <c r="C10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
       <c r="D10" s="6" t="inlineStr">
         <is>
           <t>York</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G10" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="n"/>
-      <c r="J10" s="14" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G10" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="H10" s="17" t="n"/>
+      <c r="I10" s="17" t="n"/>
+      <c r="J10" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -1584,24 +1602,24 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E11" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F11" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="H11" s="16" t="n"/>
-      <c r="I11" s="16" t="n"/>
-      <c r="J11" s="14" t="inlineStr">
+      <c r="H11" s="17" t="n"/>
+      <c r="I11" s="17" t="n"/>
+      <c r="J11" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -1626,20 +1644,20 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E12" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F12" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G12" s="16" t="n"/>
-      <c r="H12" s="16" t="n"/>
-      <c r="I12" s="16" t="n"/>
-      <c r="J12" s="11" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G12" s="17" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="I12" s="17" t="n"/>
+      <c r="J12" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1659,25 +1677,25 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E13" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F13" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="16" t="n"/>
-      <c r="I13" s="16" t="n"/>
-      <c r="J13" s="11" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G13" s="17" t="n"/>
+      <c r="H13" s="17" t="n"/>
+      <c r="I13" s="17" t="n"/>
+      <c r="J13" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1697,21 +1715,21 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E14" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F14" s="16" t="n"/>
-      <c r="G14" s="16" t="n"/>
-      <c r="H14" s="16" t="n"/>
-      <c r="I14" s="16" t="n"/>
-      <c r="J14" s="11" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="n"/>
+      <c r="G14" s="17" t="n"/>
+      <c r="H14" s="17" t="n"/>
+      <c r="I14" s="17" t="n"/>
+      <c r="J14" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1859,12 +1877,12 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="E3" s="17" t="inlineStr">
+      <c r="E3" s="18" t="inlineStr">
         <is>
           <t>OTECH</t>
         </is>
@@ -1874,7 +1892,7 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
@@ -1884,8 +1902,8 @@
           <t>Brock</t>
         </is>
       </c>
-      <c r="I3" s="16" t="n"/>
-      <c r="J3" s="14" t="inlineStr">
+      <c r="I3" s="17" t="n"/>
+      <c r="J3" s="15" t="inlineStr">
         <is>
           <t>St Paul</t>
         </is>
@@ -1900,12 +1918,12 @@
           <t>11:00 - 12:00pm</t>
         </is>
       </c>
-      <c r="C4" s="19" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr">
         <is>
           <t>Algoma</t>
         </is>
       </c>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="D4" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
@@ -1920,18 +1938,18 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="H4" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
       </c>
-      <c r="I4" s="16" t="n"/>
-      <c r="J4" s="14" t="inlineStr">
+      <c r="I4" s="17" t="n"/>
+      <c r="J4" s="15" t="inlineStr">
         <is>
           <t>St Paul</t>
         </is>
@@ -1951,29 +1969,29 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D5" s="16" t="n"/>
+      <c r="D5" s="17" t="n"/>
       <c r="E5" s="7" t="inlineStr">
         <is>
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="20" t="inlineStr">
         <is>
           <t>G-Humber</t>
         </is>
       </c>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I5" s="16" t="n"/>
-      <c r="J5" s="11" t="inlineStr">
+      <c r="I5" s="17" t="n"/>
+      <c r="J5" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -1993,7 +2011,7 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D6" s="15" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Laurentian</t>
         </is>
@@ -2008,18 +2026,18 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H6" s="9" t="inlineStr">
+      <c r="H6" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I6" s="16" t="n"/>
-      <c r="J6" s="11" t="inlineStr">
+      <c r="I6" s="17" t="n"/>
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -2039,7 +2057,7 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
@@ -2054,17 +2072,17 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G7" s="12" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H7" s="14" t="inlineStr">
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t>S. Portal (GM)</t>
         </is>
       </c>
-      <c r="I7" s="10" t="inlineStr">
+      <c r="I7" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
@@ -2104,13 +2122,13 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="G8" s="17" t="inlineStr">
+      <c r="G8" s="18" t="inlineStr">
         <is>
           <t>OTECH</t>
         </is>
       </c>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="10" t="inlineStr">
+      <c r="H8" s="17" t="n"/>
+      <c r="I8" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
@@ -2145,19 +2163,19 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="F9" s="16" t="n"/>
-      <c r="G9" s="12" t="inlineStr">
+      <c r="F9" s="17" t="n"/>
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I9" s="16" t="n"/>
-      <c r="J9" s="11" t="inlineStr">
+      <c r="I9" s="17" t="n"/>
+      <c r="J9" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -2172,30 +2190,30 @@
           <t>5:00 - 6:00pm</t>
         </is>
       </c>
-      <c r="C10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
       <c r="D10" s="6" t="inlineStr">
         <is>
           <t>York</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G10" s="12" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="n"/>
-      <c r="J10" s="14" t="inlineStr">
+      <c r="H10" s="17" t="n"/>
+      <c r="I10" s="17" t="n"/>
+      <c r="J10" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2210,34 +2228,34 @@
           <t>6:00 - 7:00pm</t>
         </is>
       </c>
-      <c r="C11" s="16" t="n"/>
+      <c r="C11" s="17" t="n"/>
       <c r="D11" s="6" t="inlineStr">
         <is>
           <t>York</t>
         </is>
       </c>
-      <c r="E11" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F11" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G11" s="12" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="H11" s="16" t="n"/>
-      <c r="I11" s="10" t="inlineStr">
+      <c r="H11" s="17" t="n"/>
+      <c r="I11" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="J11" s="14" t="inlineStr">
+      <c r="J11" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2252,30 +2270,30 @@
           <t>7:00 - 8:00pm</t>
         </is>
       </c>
-      <c r="C12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
       <c r="D12" s="6" t="inlineStr">
         <is>
           <t>York</t>
         </is>
       </c>
-      <c r="E12" s="18" t="inlineStr">
+      <c r="E12" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F12" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G12" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="H12" s="16" t="n"/>
-      <c r="I12" s="16" t="n"/>
-      <c r="J12" s="14" t="inlineStr">
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="H12" s="17" t="n"/>
+      <c r="I12" s="17" t="n"/>
+      <c r="J12" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2290,26 +2308,26 @@
           <t>8:00 - 9:00pm</t>
         </is>
       </c>
-      <c r="C13" s="16" t="n"/>
+      <c r="C13" s="17" t="n"/>
       <c r="D13" s="6" t="inlineStr">
         <is>
           <t>York</t>
         </is>
       </c>
-      <c r="E13" s="18" t="inlineStr">
+      <c r="E13" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="F13" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="16" t="n"/>
-      <c r="I13" s="16" t="n"/>
-      <c r="J13" s="14" t="inlineStr">
+      <c r="F13" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G13" s="17" t="n"/>
+      <c r="H13" s="17" t="n"/>
+      <c r="I13" s="17" t="n"/>
+      <c r="J13" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2324,26 +2342,26 @@
           <t>9:00 - 10:00pm</t>
         </is>
       </c>
-      <c r="C14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
       <c r="D14" s="6" t="inlineStr">
         <is>
           <t>York</t>
         </is>
       </c>
-      <c r="E14" s="16" t="n"/>
-      <c r="F14" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G14" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="H14" s="16" t="n"/>
-      <c r="I14" s="16" t="n"/>
-      <c r="J14" s="14" t="inlineStr">
+      <c r="E14" s="17" t="n"/>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="H14" s="17" t="n"/>
+      <c r="I14" s="17" t="n"/>
+      <c r="J14" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2496,12 +2514,12 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="20" t="inlineStr">
         <is>
           <t>G-Humber</t>
         </is>
@@ -2511,13 +2529,13 @@
           <t>Brock</t>
         </is>
       </c>
-      <c r="H3" s="10" t="inlineStr">
+      <c r="H3" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="I3" s="16" t="n"/>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="I3" s="17" t="n"/>
+      <c r="J3" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -2542,7 +2560,7 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
@@ -2552,18 +2570,18 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="H4" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
       </c>
-      <c r="I4" s="16" t="n"/>
-      <c r="J4" s="11" t="inlineStr">
+      <c r="I4" s="17" t="n"/>
+      <c r="J4" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -2583,12 +2601,12 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D5" s="18" t="inlineStr">
+      <c r="D5" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
@@ -2603,9 +2621,9 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="16" t="n"/>
-      <c r="J5" s="11" t="inlineStr">
+      <c r="H5" s="17" t="n"/>
+      <c r="I5" s="17" t="n"/>
+      <c r="J5" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -2630,12 +2648,12 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="F6" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
@@ -2645,9 +2663,9 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="H6" s="16" t="n"/>
-      <c r="I6" s="16" t="n"/>
-      <c r="J6" s="11" t="inlineStr">
+      <c r="H6" s="17" t="n"/>
+      <c r="I6" s="17" t="n"/>
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -2672,19 +2690,19 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E7" s="12" t="inlineStr">
+      <c r="E7" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="F7" s="16" t="n"/>
-      <c r="G7" s="16" t="n"/>
-      <c r="H7" s="13" t="inlineStr">
+      <c r="F7" s="17" t="n"/>
+      <c r="G7" s="17" t="n"/>
+      <c r="H7" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
       </c>
-      <c r="I7" s="10" t="inlineStr">
+      <c r="I7" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
@@ -2704,7 +2722,7 @@
           <t>3:00 - 4:00pm</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
@@ -2714,12 +2732,12 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E8" s="12" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="F8" s="18" t="inlineStr">
+      <c r="F8" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
@@ -2729,12 +2747,12 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="H8" s="9" t="inlineStr">
+      <c r="H8" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I8" s="10" t="inlineStr">
+      <c r="I8" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
@@ -2754,7 +2772,7 @@
           <t>4:00 - 5:00pm</t>
         </is>
       </c>
-      <c r="C9" s="14" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2764,24 +2782,24 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E9" s="12" t="inlineStr">
+      <c r="E9" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="F9" s="16" t="n"/>
+      <c r="F9" s="17" t="n"/>
       <c r="G9" s="7" t="inlineStr">
         <is>
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="I9" s="16" t="n"/>
-      <c r="J9" s="11" t="inlineStr">
+      <c r="I9" s="17" t="n"/>
+      <c r="J9" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -2806,20 +2824,20 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F10" s="16" t="n"/>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F10" s="17" t="n"/>
       <c r="G10" s="7" t="inlineStr">
         <is>
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="n"/>
-      <c r="J10" s="14" t="inlineStr">
+      <c r="H10" s="17" t="n"/>
+      <c r="I10" s="17" t="n"/>
+      <c r="J10" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2844,24 +2862,24 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E11" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F11" s="16" t="n"/>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F11" s="17" t="n"/>
       <c r="G11" s="7" t="inlineStr">
         <is>
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="H11" s="16" t="n"/>
-      <c r="I11" s="10" t="inlineStr">
+      <c r="H11" s="17" t="n"/>
+      <c r="I11" s="11" t="inlineStr">
         <is>
           <t>Queens</t>
         </is>
       </c>
-      <c r="J11" s="14" t="inlineStr">
+      <c r="J11" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2886,16 +2904,16 @@
           <t>York</t>
         </is>
       </c>
-      <c r="E12" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F12" s="16" t="n"/>
-      <c r="G12" s="16" t="n"/>
-      <c r="H12" s="16" t="n"/>
-      <c r="I12" s="16" t="n"/>
-      <c r="J12" s="14" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F12" s="17" t="n"/>
+      <c r="G12" s="17" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="I12" s="17" t="n"/>
+      <c r="J12" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2915,21 +2933,21 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E13" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F13" s="16" t="n"/>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="16" t="n"/>
-      <c r="I13" s="16" t="n"/>
-      <c r="J13" s="14" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F13" s="17" t="n"/>
+      <c r="G13" s="17" t="n"/>
+      <c r="H13" s="17" t="n"/>
+      <c r="I13" s="17" t="n"/>
+      <c r="J13" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -2944,26 +2962,26 @@
           <t>9:00 - 10:00pm</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E14" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F14" s="16" t="n"/>
-      <c r="G14" s="16" t="n"/>
-      <c r="H14" s="16" t="n"/>
-      <c r="I14" s="16" t="n"/>
-      <c r="J14" s="14" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="n"/>
+      <c r="G14" s="17" t="n"/>
+      <c r="H14" s="17" t="n"/>
+      <c r="I14" s="17" t="n"/>
+      <c r="J14" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3100,12 +3118,12 @@
           <t>10:00 - 11:00am</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
       </c>
-      <c r="D3" s="17" t="inlineStr">
+      <c r="D3" s="18" t="inlineStr">
         <is>
           <t>OTECH</t>
         </is>
@@ -3120,7 +3138,7 @@
           <t>Brock</t>
         </is>
       </c>
-      <c r="G3" s="14" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>St Paul</t>
         </is>
@@ -3135,7 +3153,7 @@
           <t>11:00 - 12:00pm</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Lakehead</t>
         </is>
@@ -3150,12 +3168,12 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="G4" s="15" t="inlineStr">
         <is>
           <t>St Paul</t>
         </is>
@@ -3170,7 +3188,7 @@
           <t>12:00 - 1:00pm</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
@@ -3180,17 +3198,17 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>S. Portal</t>
         </is>
       </c>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -3205,7 +3223,7 @@
           <t>1:00 - 2:00pm</t>
         </is>
       </c>
-      <c r="C6" s="18" t="inlineStr">
+      <c r="C6" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
@@ -3220,12 +3238,12 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -3240,7 +3258,7 @@
           <t>2:00 - 3:00pm</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="18" t="inlineStr">
         <is>
           <t>OTECH</t>
         </is>
@@ -3250,17 +3268,17 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="E7" s="14" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>S. Portal</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -3275,7 +3293,7 @@
           <t>3:00 - 4:00pm</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
@@ -3295,7 +3313,7 @@
           <t>Brock</t>
         </is>
       </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -3310,7 +3328,7 @@
           <t>4:00 - 5:00pm</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>Carleton</t>
         </is>
@@ -3325,8 +3343,8 @@
           <t>Guelph</t>
         </is>
       </c>
-      <c r="F9" s="16" t="n"/>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="F9" s="17" t="n"/>
+      <c r="G9" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -3508,22 +3526,22 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G3" s="14" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E3" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F3" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3543,22 +3561,22 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="D4" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="F4" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G4" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3578,22 +3596,22 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G5" s="14" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G5" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3613,22 +3631,22 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E6" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F6" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E6" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F6" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G6" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3648,18 +3666,18 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E7" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F7" s="16" t="n"/>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F7" s="17" t="n"/>
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -3679,18 +3697,18 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F8" s="16" t="n"/>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n"/>
+      <c r="G8" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3883,22 +3901,22 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="G3" s="14" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E3" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F3" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3918,22 +3936,22 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E4" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="D4" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F4" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="G4" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3953,22 +3971,22 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="E5" s="14" t="inlineStr">
-        <is>
-          <t>Mentee</t>
-        </is>
-      </c>
-      <c r="F5" s="18" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="E5" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
+      </c>
+      <c r="F5" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="G5" s="14" t="inlineStr">
+      <c r="G5" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3988,7 +4006,7 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -3998,12 +4016,12 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="F6" s="19" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="G6" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -4023,7 +4041,7 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -4033,8 +4051,8 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="F7" s="16" t="n"/>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="F7" s="17" t="n"/>
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -4054,7 +4072,7 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>
@@ -4064,8 +4082,8 @@
           <t>Ryerson</t>
         </is>
       </c>
-      <c r="F8" s="16" t="n"/>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="F8" s="17" t="n"/>
+      <c r="G8" s="15" t="inlineStr">
         <is>
           <t>Mentee</t>
         </is>

--- a/schedule_output.xlsx
+++ b/schedule_output.xlsx
@@ -548,7 +548,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="13" min="2" width="25.7109375"/>
   </cols>
@@ -1196,7 +1196,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="13" min="2" width="25.7109375"/>
   </cols>
@@ -1824,7 +1824,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="13" min="2" width="25.7109375"/>
   </cols>
@@ -2456,7 +2456,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="13" min="2" width="25.7109375"/>
   </cols>
@@ -3076,7 +3076,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="13" min="2" width="25.7109375"/>
   </cols>
@@ -3479,7 +3479,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="13" min="2" width="25.7109375"/>
   </cols>
@@ -3854,7 +3854,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="13" min="2" width="25.7109375"/>
   </cols>
@@ -3971,8 +3971,10 @@
           <t>Toronto</t>
         </is>
       </c>
-      <c r="D5" s="15" t="n">
-        <v>4</v>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t>Mentee</t>
+        </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
         <is>
